--- a/controller/downloads/unmatched.xlsx
+++ b/controller/downloads/unmatched.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghana </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Nigerian </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Cameroonian</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>American</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ivorian </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Cameroonain</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Kenyan</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Zimbabwean </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Zimbabwean</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t xml:space="preserve">Ghanaian </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>Ghanaian</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
